--- a/Australia-States-Territories.xlsx
+++ b/Australia-States-Territories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ABS\Labour Force\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993039A1-CA21-4545-9770-BE967CDD1729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA703E9C-BEB6-40AD-A312-691ACC85C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,15 +84,6 @@
     <t>AUS</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Colour Code</t>
-  </si>
-  <si>
     <t>Australian Capital Territory</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Geography Code</t>
+  </si>
+  <si>
+    <t>Geography Name</t>
+  </si>
+  <si>
+    <t>Geography Colour Code</t>
   </si>
 </sst>
 </file>
@@ -173,9 +173,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}" name="States_and_Territories" displayName="States_and_Territories" ref="A1:C10" totalsRowShown="0">
   <autoFilter ref="A1:C10" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0857B6FA-9A65-4FBA-BFBB-30CA0484F3FC}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{AAA1DF37-730C-4CAC-AD30-E09188B5B5A5}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{099F2D62-01BE-43C2-B75C-1B4D791DDBDF}" name="Colour Code"/>
+    <tableColumn id="1" xr3:uid="{0857B6FA-9A65-4FBA-BFBB-30CA0484F3FC}" name="Geography Code"/>
+    <tableColumn id="2" xr3:uid="{AAA1DF37-730C-4CAC-AD30-E09188B5B5A5}" name="Geography Name"/>
+    <tableColumn id="3" xr3:uid="{099F2D62-01BE-43C2-B75C-1B4D791DDBDF}" name="Geography Colour Code"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -458,13 +458,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -549,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -560,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>

--- a/Australia-States-Territories.xlsx
+++ b/Australia-States-Territories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ABS\Labour Force\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA703E9C-BEB6-40AD-A312-691ACC85C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B477868-C15A-4042-9FF9-ECF7AB0D4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>#00843D</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Geography Colour Code</t>
+  </si>
+  <si>
+    <t>Geography Sort Order</t>
   </si>
 </sst>
 </file>
@@ -170,12 +173,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}" name="States_and_Territories" displayName="States_and_Territories" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}" name="States_and_Territories" displayName="States_and_Territories" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0857B6FA-9A65-4FBA-BFBB-30CA0484F3FC}" name="Geography Code"/>
     <tableColumn id="2" xr3:uid="{AAA1DF37-730C-4CAC-AD30-E09188B5B5A5}" name="Geography Name"/>
     <tableColumn id="3" xr3:uid="{099F2D62-01BE-43C2-B75C-1B4D791DDBDF}" name="Geography Colour Code"/>
+    <tableColumn id="4" xr3:uid="{02DD9777-E480-4F82-8E55-1AB16887FD8A}" name="Geography Sort Order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,19 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9296875" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -477,8 +486,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -488,8 +500,11 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -499,8 +514,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -510,8 +528,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -521,8 +542,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -532,8 +556,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -543,8 +570,11 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -554,8 +584,11 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -564,6 +597,9 @@
       </c>
       <c r="C10" t="s">
         <v>16</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
